--- a/dataanalysis/data/predictions/1200/07281134_1136.xlsx
+++ b/dataanalysis/data/predictions/1200/07281134_1136.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="131">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-28</t>
   </si>
   <si>
@@ -404,12 +407,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -767,13 +764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA60"/>
+  <dimension ref="A1:AB60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,19 +852,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>1.4</v>
@@ -885,7 +885,7 @@
         <v>35651.78</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -905,8 +905,23 @@
       <c r="P2">
         <v>-0.21</v>
       </c>
+      <c r="Q2">
+        <v>-1.98</v>
+      </c>
+      <c r="R2">
+        <v>5.08</v>
+      </c>
+      <c r="S2">
+        <v>0.2</v>
+      </c>
       <c r="V2" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -914,22 +929,25 @@
       <c r="Z2">
         <v>6.587898254394531</v>
       </c>
-      <c r="AA2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>-0.82</v>
@@ -947,7 +965,7 @@
         <v>25366.5</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3">
         <v>14</v>
@@ -967,8 +985,23 @@
       <c r="P3">
         <v>-0.3</v>
       </c>
+      <c r="Q3">
+        <v>0.95</v>
+      </c>
+      <c r="R3">
+        <v>22.38</v>
+      </c>
+      <c r="S3">
+        <v>2.19</v>
+      </c>
       <c r="V3" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -976,22 +1009,25 @@
       <c r="Z3">
         <v>4.138185977935791</v>
       </c>
-      <c r="AA3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>300021</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>6.1</v>
@@ -1009,7 +1045,7 @@
         <v>115976.27</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -1029,8 +1065,23 @@
       <c r="P4">
         <v>0.68</v>
       </c>
+      <c r="Q4">
+        <v>-4.74</v>
+      </c>
+      <c r="R4">
+        <v>6.96</v>
+      </c>
+      <c r="S4">
+        <v>2.65</v>
+      </c>
       <c r="V4" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1038,22 +1089,25 @@
       <c r="Z4">
         <v>4.665028095245361</v>
       </c>
-      <c r="AA4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>2.84</v>
@@ -1071,7 +1125,7 @@
         <v>59162.12</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K5">
         <v>12</v>
@@ -1091,8 +1145,23 @@
       <c r="P5">
         <v>-0.3</v>
       </c>
+      <c r="Q5">
+        <v>-2.15</v>
+      </c>
+      <c r="R5">
+        <v>6.51</v>
+      </c>
+      <c r="S5">
+        <v>-0.15</v>
+      </c>
       <c r="V5" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1100,22 +1169,25 @@
       <c r="Z5">
         <v>4.212142467498779</v>
       </c>
-      <c r="AA5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>300086</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>3.94</v>
@@ -1133,7 +1205,7 @@
         <v>81266.45</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -1153,8 +1225,23 @@
       <c r="P6">
         <v>0.5</v>
       </c>
+      <c r="Q6">
+        <v>0.76</v>
+      </c>
+      <c r="R6">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="S6">
+        <v>5.82</v>
+      </c>
       <c r="V6" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1162,22 +1249,25 @@
       <c r="Z6">
         <v>2.216035604476929</v>
       </c>
-      <c r="AA6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300095</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>1.83</v>
@@ -1195,7 +1285,7 @@
         <v>26146.33</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -1215,8 +1305,23 @@
       <c r="P7">
         <v>0</v>
       </c>
+      <c r="Q7">
+        <v>-1</v>
+      </c>
+      <c r="R7">
+        <v>11.13</v>
+      </c>
+      <c r="S7">
+        <v>0.27</v>
+      </c>
       <c r="V7" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1224,22 +1329,25 @@
       <c r="Z7">
         <v>2.41483211517334</v>
       </c>
-      <c r="AA7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>300158</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>6.69</v>
@@ -1257,7 +1365,7 @@
         <v>119647.91</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -1277,8 +1385,23 @@
       <c r="P8">
         <v>0.31</v>
       </c>
+      <c r="Q8">
+        <v>6.66</v>
+      </c>
+      <c r="R8">
+        <v>7.79</v>
+      </c>
+      <c r="S8">
+        <v>3.87</v>
+      </c>
       <c r="V8" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1286,22 +1409,25 @@
       <c r="Z8">
         <v>6.727066040039062</v>
       </c>
-      <c r="AA8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>300224</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>-1.52</v>
@@ -1319,7 +1445,7 @@
         <v>73383.7</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1339,8 +1465,23 @@
       <c r="P9">
         <v>-0.57</v>
       </c>
+      <c r="Q9">
+        <v>-1.3</v>
+      </c>
+      <c r="R9">
+        <v>17.05</v>
+      </c>
+      <c r="S9">
+        <v>1.31</v>
+      </c>
       <c r="V9" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1348,22 +1489,25 @@
       <c r="Z9">
         <v>2.263486385345459</v>
       </c>
-      <c r="AA9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>300254</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>2.55</v>
@@ -1381,7 +1525,7 @@
         <v>38369.39</v>
       </c>
       <c r="J10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -1401,8 +1545,23 @@
       <c r="P10">
         <v>0.06</v>
       </c>
+      <c r="Q10">
+        <v>3.28</v>
+      </c>
+      <c r="R10">
+        <v>12.55</v>
+      </c>
+      <c r="S10">
+        <v>7.45</v>
+      </c>
       <c r="V10" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1410,22 +1569,25 @@
       <c r="Z10">
         <v>1.471764087677002</v>
       </c>
-      <c r="AA10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>300267</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>14.89</v>
@@ -1443,7 +1605,7 @@
         <v>125818.01</v>
       </c>
       <c r="J11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1463,8 +1625,23 @@
       <c r="P11">
         <v>2.15</v>
       </c>
+      <c r="Q11">
+        <v>-1.84</v>
+      </c>
+      <c r="R11">
+        <v>4.5</v>
+      </c>
+      <c r="S11">
+        <v>4.17</v>
+      </c>
       <c r="V11" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1472,22 +1649,25 @@
       <c r="Z11">
         <v>4.516791343688965</v>
       </c>
-      <c r="AA11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>300283</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>1.64</v>
@@ -1505,7 +1685,7 @@
         <v>21381.89</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K12">
         <v>7</v>
@@ -1525,8 +1705,23 @@
       <c r="P12">
         <v>0.21</v>
       </c>
+      <c r="Q12">
+        <v>-2.21</v>
+      </c>
+      <c r="R12">
+        <v>7.98</v>
+      </c>
+      <c r="S12">
+        <v>7.11</v>
+      </c>
       <c r="V12" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1534,22 +1729,25 @@
       <c r="Z12">
         <v>2.626697301864624</v>
       </c>
-      <c r="AA12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>300322</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>18.67</v>
@@ -1567,7 +1765,7 @@
         <v>224972.57</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1587,8 +1785,23 @@
       <c r="P13">
         <v>6.8</v>
       </c>
+      <c r="Q13">
+        <v>-0.95</v>
+      </c>
+      <c r="R13">
+        <v>19.07</v>
+      </c>
+      <c r="S13">
+        <v>2.03</v>
+      </c>
       <c r="V13" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>1</v>
@@ -1596,22 +1809,25 @@
       <c r="Z13">
         <v>6.467787742614746</v>
       </c>
-      <c r="AA13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>300329</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>-3.27</v>
@@ -1629,7 +1845,7 @@
         <v>26287.33</v>
       </c>
       <c r="J14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1649,8 +1865,23 @@
       <c r="P14">
         <v>-0.57</v>
       </c>
+      <c r="Q14">
+        <v>-1.91</v>
+      </c>
+      <c r="R14">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="S14">
+        <v>3.27</v>
+      </c>
       <c r="V14" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1658,22 +1889,25 @@
       <c r="Z14">
         <v>3.100787162780762</v>
       </c>
-      <c r="AA14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>300363</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>0.93</v>
@@ -1691,7 +1925,7 @@
         <v>68485.13</v>
       </c>
       <c r="J15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -1711,8 +1945,23 @@
       <c r="P15">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="Q15">
+        <v>2.58</v>
+      </c>
+      <c r="R15">
+        <v>26.25</v>
+      </c>
+      <c r="S15">
+        <v>9.92</v>
+      </c>
       <c r="V15" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>1</v>
@@ -1720,22 +1969,25 @@
       <c r="Z15">
         <v>5.688931941986084</v>
       </c>
-      <c r="AA15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300414</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>0.36</v>
@@ -1753,7 +2005,7 @@
         <v>34417.95</v>
       </c>
       <c r="J16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K16">
         <v>11</v>
@@ -1773,8 +2025,23 @@
       <c r="P16">
         <v>0.19</v>
       </c>
+      <c r="Q16">
+        <v>11.4</v>
+      </c>
+      <c r="R16">
+        <v>17.19</v>
+      </c>
+      <c r="S16">
+        <v>22.44</v>
+      </c>
       <c r="V16" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1782,22 +2049,25 @@
       <c r="Z16">
         <v>1.526842594146729</v>
       </c>
-      <c r="AA16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>300436</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>12.41</v>
@@ -1815,7 +2085,7 @@
         <v>105713.45</v>
       </c>
       <c r="J17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17">
         <v>18</v>
@@ -1835,8 +2105,23 @@
       <c r="P17">
         <v>-0.04</v>
       </c>
+      <c r="Q17">
+        <v>8.18</v>
+      </c>
+      <c r="R17">
+        <v>98.8</v>
+      </c>
+      <c r="S17">
+        <v>17.2</v>
+      </c>
       <c r="V17" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -1844,22 +2129,25 @@
       <c r="Z17">
         <v>3.724405765533447</v>
       </c>
-      <c r="AA17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>300490</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>-2.99</v>
@@ -1877,7 +2165,7 @@
         <v>24768.21</v>
       </c>
       <c r="J18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1897,8 +2185,23 @@
       <c r="P18">
         <v>-0.68</v>
       </c>
+      <c r="Q18">
+        <v>-1.22</v>
+      </c>
+      <c r="R18">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="S18">
+        <v>1.44</v>
+      </c>
       <c r="V18" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -1906,22 +2209,25 @@
       <c r="Z18">
         <v>3.286866664886475</v>
       </c>
-      <c r="AA18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>300527</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>0.44</v>
@@ -1939,7 +2245,7 @@
         <v>41700.03</v>
       </c>
       <c r="J19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K19">
         <v>20</v>
@@ -1959,8 +2265,23 @@
       <c r="P19">
         <v>-0.17</v>
       </c>
+      <c r="Q19">
+        <v>4.1</v>
+      </c>
+      <c r="R19">
+        <v>12.44</v>
+      </c>
+      <c r="S19">
+        <v>9.51</v>
+      </c>
       <c r="V19" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
       </c>
       <c r="Y19">
         <v>1</v>
@@ -1968,22 +2289,25 @@
       <c r="Z19">
         <v>4.349150657653809</v>
       </c>
-      <c r="AA19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>300528</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -2001,7 +2325,7 @@
         <v>34150.75</v>
       </c>
       <c r="J20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2021,8 +2345,23 @@
       <c r="P20">
         <v>2.45</v>
       </c>
+      <c r="Q20">
+        <v>20.02</v>
+      </c>
+      <c r="R20">
+        <v>21.1</v>
+      </c>
+      <c r="S20">
+        <v>20.02</v>
+      </c>
       <c r="V20" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
       </c>
       <c r="Y20">
         <v>1</v>
@@ -2030,22 +2369,25 @@
       <c r="Z20">
         <v>14.29219055175781</v>
       </c>
-      <c r="AA20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>300533</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>1.3</v>
@@ -2063,7 +2405,7 @@
         <v>36948.57</v>
       </c>
       <c r="J21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K21">
         <v>24</v>
@@ -2083,8 +2425,23 @@
       <c r="P21">
         <v>0.6899999999999999</v>
       </c>
+      <c r="Q21">
+        <v>4.78</v>
+      </c>
+      <c r="R21">
+        <v>37.51</v>
+      </c>
+      <c r="S21">
+        <v>4.63</v>
+      </c>
       <c r="V21" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2092,22 +2449,25 @@
       <c r="Z21">
         <v>5.527060985565186</v>
       </c>
-      <c r="AA21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>300539</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>4.43</v>
@@ -2125,7 +2485,7 @@
         <v>93837.83</v>
       </c>
       <c r="J22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -2145,8 +2505,23 @@
       <c r="P22">
         <v>-0.63</v>
       </c>
+      <c r="Q22">
+        <v>19.1</v>
+      </c>
+      <c r="R22">
+        <v>29.72</v>
+      </c>
+      <c r="S22">
+        <v>20.03</v>
+      </c>
       <c r="V22" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2154,22 +2529,25 @@
       <c r="Z22">
         <v>0.0057155373506248</v>
       </c>
-      <c r="AA22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>300548</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>-0.75</v>
@@ -2187,7 +2565,7 @@
         <v>74679.22</v>
       </c>
       <c r="J23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K23">
         <v>10</v>
@@ -2207,8 +2585,23 @@
       <c r="P23">
         <v>-0.2</v>
       </c>
+      <c r="Q23">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="R23">
+        <v>93.39</v>
+      </c>
+      <c r="S23">
+        <v>13.83</v>
+      </c>
       <c r="V23" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2216,22 +2609,25 @@
       <c r="Z23">
         <v>2.763715028762817</v>
       </c>
-      <c r="AA23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>300631</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>-0.03</v>
@@ -2249,7 +2645,7 @@
         <v>29583.34</v>
       </c>
       <c r="J24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K24">
         <v>11</v>
@@ -2269,8 +2665,23 @@
       <c r="P24">
         <v>-0.23</v>
       </c>
+      <c r="Q24">
+        <v>-4.37</v>
+      </c>
+      <c r="R24">
+        <v>33.15</v>
+      </c>
+      <c r="S24">
+        <v>0.39</v>
+      </c>
       <c r="V24" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2278,22 +2689,25 @@
       <c r="Z24">
         <v>3.343791246414185</v>
       </c>
-      <c r="AA24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>300644</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>4.32</v>
@@ -2311,7 +2725,7 @@
         <v>46188.82</v>
       </c>
       <c r="J25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K25">
         <v>8</v>
@@ -2331,8 +2745,23 @@
       <c r="P25">
         <v>1.13</v>
       </c>
+      <c r="Q25">
+        <v>2.42</v>
+      </c>
+      <c r="R25">
+        <v>35.27</v>
+      </c>
+      <c r="S25">
+        <v>5.16</v>
+      </c>
       <c r="V25" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2340,22 +2769,25 @@
       <c r="Z25">
         <v>2.98547887802124</v>
       </c>
-      <c r="AA25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>300683</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>-3.36</v>
@@ -2373,7 +2805,7 @@
         <v>65766.94</v>
       </c>
       <c r="J26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K26">
         <v>6</v>
@@ -2393,8 +2825,23 @@
       <c r="P26">
         <v>-0.55</v>
       </c>
+      <c r="Q26">
+        <v>15.28</v>
+      </c>
+      <c r="R26">
+        <v>51.77</v>
+      </c>
+      <c r="S26">
+        <v>15.38</v>
+      </c>
       <c r="V26" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2402,22 +2849,25 @@
       <c r="Z26">
         <v>3.514549732208252</v>
       </c>
-      <c r="AA26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>300706</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>8.94</v>
@@ -2435,7 +2885,7 @@
         <v>144684.28</v>
       </c>
       <c r="J27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2455,8 +2905,23 @@
       <c r="P27">
         <v>-2.94</v>
       </c>
+      <c r="Q27">
+        <v>-5.42</v>
+      </c>
+      <c r="R27">
+        <v>35.92</v>
+      </c>
+      <c r="S27">
+        <v>-1.37</v>
+      </c>
       <c r="V27" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>1</v>
@@ -2464,22 +2929,25 @@
       <c r="Z27">
         <v>5.09868049621582</v>
       </c>
-      <c r="AA27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>300722</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>0.93</v>
@@ -2497,7 +2965,7 @@
         <v>44814.32</v>
       </c>
       <c r="J28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K28">
         <v>6</v>
@@ -2517,8 +2985,23 @@
       <c r="P28">
         <v>0.14</v>
       </c>
+      <c r="Q28">
+        <v>4.88</v>
+      </c>
+      <c r="R28">
+        <v>40.13</v>
+      </c>
+      <c r="S28">
+        <v>5.52</v>
+      </c>
       <c r="V28" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2526,22 +3009,25 @@
       <c r="Z28">
         <v>3.036054849624634</v>
       </c>
-      <c r="AA28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>300748</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>-1.08</v>
@@ -2559,7 +3045,7 @@
         <v>118613.73</v>
       </c>
       <c r="J29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K29">
         <v>12</v>
@@ -2579,8 +3065,23 @@
       <c r="P29">
         <v>-0.06</v>
       </c>
+      <c r="Q29">
+        <v>-1.47</v>
+      </c>
+      <c r="R29">
+        <v>28.43</v>
+      </c>
+      <c r="S29">
+        <v>0.14</v>
+      </c>
       <c r="V29" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -2588,22 +3089,25 @@
       <c r="Z29">
         <v>3.844780683517456</v>
       </c>
-      <c r="AA29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>300803</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>1.52</v>
@@ -2621,7 +3125,7 @@
         <v>287021.62</v>
       </c>
       <c r="J30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K30">
         <v>22</v>
@@ -2641,8 +3145,23 @@
       <c r="P30">
         <v>0.05</v>
       </c>
+      <c r="Q30">
+        <v>0.16</v>
+      </c>
+      <c r="R30">
+        <v>94.7</v>
+      </c>
+      <c r="S30">
+        <v>1.05</v>
+      </c>
       <c r="V30" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -2650,22 +3169,25 @@
       <c r="Z30">
         <v>2.715918064117432</v>
       </c>
-      <c r="AA30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>300835</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>4.9</v>
@@ -2683,7 +3205,7 @@
         <v>67211.28</v>
       </c>
       <c r="J31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K31">
         <v>5</v>
@@ -2703,8 +3225,23 @@
       <c r="P31">
         <v>0.37</v>
       </c>
+      <c r="Q31">
+        <v>-1.91</v>
+      </c>
+      <c r="R31">
+        <v>62.24</v>
+      </c>
+      <c r="S31">
+        <v>4.17</v>
+      </c>
       <c r="V31" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -2712,22 +3249,25 @@
       <c r="Z31">
         <v>2.766090631484985</v>
       </c>
-      <c r="AA31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>300869</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>2.87</v>
@@ -2745,7 +3285,7 @@
         <v>84439.92</v>
       </c>
       <c r="J32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2765,8 +3305,23 @@
       <c r="P32">
         <v>-0.09</v>
       </c>
+      <c r="Q32">
+        <v>-4.3</v>
+      </c>
+      <c r="R32">
+        <v>19.78</v>
+      </c>
+      <c r="S32">
+        <v>2.17</v>
+      </c>
       <c r="V32" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>1</v>
@@ -2774,22 +3329,25 @@
       <c r="Z32">
         <v>5.360297679901123</v>
       </c>
-      <c r="AA32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>300872</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>4.32</v>
@@ -2807,7 +3365,7 @@
         <v>147545.95</v>
       </c>
       <c r="J33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2827,8 +3385,23 @@
       <c r="P33">
         <v>1.65</v>
       </c>
+      <c r="Q33">
+        <v>1.58</v>
+      </c>
+      <c r="R33">
+        <v>27.76</v>
+      </c>
+      <c r="S33">
+        <v>3.5</v>
+      </c>
       <c r="V33" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -2836,22 +3409,25 @@
       <c r="Z33">
         <v>3.081620216369629</v>
       </c>
-      <c r="AA33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>300877</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>-4.54</v>
@@ -2869,7 +3445,7 @@
         <v>23932.98</v>
       </c>
       <c r="J34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2889,8 +3465,23 @@
       <c r="P34">
         <v>-0.37</v>
       </c>
+      <c r="Q34">
+        <v>0.31</v>
+      </c>
+      <c r="R34">
+        <v>26.3</v>
+      </c>
+      <c r="S34">
+        <v>6.95</v>
+      </c>
       <c r="V34" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>1</v>
@@ -2898,22 +3489,25 @@
       <c r="Z34">
         <v>5.229867458343506</v>
       </c>
-      <c r="AA34" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>300885</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>0.57</v>
@@ -2931,7 +3525,7 @@
         <v>41220</v>
       </c>
       <c r="J35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K35">
         <v>4</v>
@@ -2951,8 +3545,23 @@
       <c r="P35">
         <v>-0.48</v>
       </c>
+      <c r="Q35">
+        <v>20.01</v>
+      </c>
+      <c r="R35">
+        <v>20.51</v>
+      </c>
+      <c r="S35">
+        <v>16.34</v>
+      </c>
       <c r="V35" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -2960,22 +3569,25 @@
       <c r="Z35">
         <v>3.070133686065674</v>
       </c>
-      <c r="AA35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>300950</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>7.24</v>
@@ -2993,7 +3605,7 @@
         <v>48903.49</v>
       </c>
       <c r="J36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3013,8 +3625,23 @@
       <c r="P36">
         <v>1.47</v>
       </c>
+      <c r="Q36">
+        <v>-2.7</v>
+      </c>
+      <c r="R36">
+        <v>32.57</v>
+      </c>
+      <c r="S36">
+        <v>0.4</v>
+      </c>
       <c r="V36" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3022,22 +3649,25 @@
       <c r="Z36">
         <v>3.387403964996338</v>
       </c>
-      <c r="AA36" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>301007</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>0.6</v>
@@ -3055,7 +3685,7 @@
         <v>65613.17999999999</v>
       </c>
       <c r="J37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -3075,8 +3705,23 @@
       <c r="P37">
         <v>-0.83</v>
       </c>
+      <c r="Q37">
+        <v>10.4</v>
+      </c>
+      <c r="R37">
+        <v>38.88</v>
+      </c>
+      <c r="S37">
+        <v>10.99</v>
+      </c>
       <c r="V37" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
       </c>
       <c r="Y37">
         <v>1</v>
@@ -3084,22 +3729,25 @@
       <c r="Z37">
         <v>8.653388977050781</v>
       </c>
-      <c r="AA37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>301132</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>5.04</v>
@@ -3117,7 +3765,7 @@
         <v>43168.29</v>
       </c>
       <c r="J38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -3137,8 +3785,23 @@
       <c r="P38">
         <v>1.57</v>
       </c>
+      <c r="Q38">
+        <v>1.6</v>
+      </c>
+      <c r="R38">
+        <v>40.46</v>
+      </c>
+      <c r="S38">
+        <v>6.64</v>
+      </c>
       <c r="V38" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3146,22 +3809,25 @@
       <c r="Z38">
         <v>0.8572255373001099</v>
       </c>
-      <c r="AA38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>301150</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>5.03</v>
@@ -3179,7 +3845,7 @@
         <v>39659.14</v>
       </c>
       <c r="J39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -3199,8 +3865,23 @@
       <c r="P39">
         <v>0.49</v>
       </c>
+      <c r="Q39">
+        <v>2.86</v>
+      </c>
+      <c r="R39">
+        <v>28.95</v>
+      </c>
+      <c r="S39">
+        <v>15.48</v>
+      </c>
       <c r="V39" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3208,22 +3889,25 @@
       <c r="Z39">
         <v>5.601567268371582</v>
       </c>
-      <c r="AA39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>301151</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>3.17</v>
@@ -3241,7 +3925,7 @@
         <v>19729.96</v>
       </c>
       <c r="J40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K40">
         <v>4</v>
@@ -3261,8 +3945,23 @@
       <c r="P40">
         <v>0.09</v>
       </c>
+      <c r="Q40">
+        <v>0.44</v>
+      </c>
+      <c r="R40">
+        <v>23.74</v>
+      </c>
+      <c r="S40">
+        <v>4.21</v>
+      </c>
       <c r="V40" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3270,22 +3969,25 @@
       <c r="Z40">
         <v>5.593283653259277</v>
       </c>
-      <c r="AA40" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>301183</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>-0.7</v>
@@ -3303,7 +4005,7 @@
         <v>23068.89</v>
       </c>
       <c r="J41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K41">
         <v>9</v>
@@ -3323,8 +4025,23 @@
       <c r="P41">
         <v>0.12</v>
       </c>
+      <c r="Q41">
+        <v>1.71</v>
+      </c>
+      <c r="R41">
+        <v>69.39</v>
+      </c>
+      <c r="S41">
+        <v>6.44</v>
+      </c>
       <c r="V41" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>1</v>
@@ -3332,22 +4049,25 @@
       <c r="Z41">
         <v>6.722589492797852</v>
       </c>
-      <c r="AA41" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>301200</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>8.56</v>
@@ -3365,7 +4085,7 @@
         <v>66168.42</v>
       </c>
       <c r="J42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -3385,8 +4105,23 @@
       <c r="P42">
         <v>0.03</v>
       </c>
+      <c r="Q42">
+        <v>2.95</v>
+      </c>
+      <c r="R42">
+        <v>73.76000000000001</v>
+      </c>
+      <c r="S42">
+        <v>17.92</v>
+      </c>
       <c r="V42" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -3394,22 +4129,25 @@
       <c r="Z42">
         <v>1.146014213562012</v>
       </c>
-      <c r="AA42" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>301217</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>4.07</v>
@@ -3427,7 +4165,7 @@
         <v>105677.88</v>
       </c>
       <c r="J43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K43">
         <v>16</v>
@@ -3447,8 +4185,23 @@
       <c r="P43">
         <v>-0.16</v>
       </c>
+      <c r="Q43">
+        <v>6.78</v>
+      </c>
+      <c r="R43">
+        <v>28.5</v>
+      </c>
+      <c r="S43">
+        <v>31.03</v>
+      </c>
       <c r="V43" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -3456,22 +4209,25 @@
       <c r="Z43">
         <v>4.652693748474121</v>
       </c>
-      <c r="AA43" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>301306</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>8.970000000000001</v>
@@ -3489,7 +4245,7 @@
         <v>47818.84</v>
       </c>
       <c r="J44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K44">
         <v>4</v>
@@ -3509,8 +4265,23 @@
       <c r="P44">
         <v>0.72</v>
       </c>
+      <c r="Q44">
+        <v>3.12</v>
+      </c>
+      <c r="R44">
+        <v>68.39</v>
+      </c>
+      <c r="S44">
+        <v>9.949999999999999</v>
+      </c>
       <c r="V44" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -3518,22 +4289,25 @@
       <c r="Z44">
         <v>5.477213859558105</v>
       </c>
-      <c r="AA44" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>301345</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>-1.32</v>
@@ -3551,7 +4325,7 @@
         <v>27033.47</v>
       </c>
       <c r="J45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -3571,8 +4345,23 @@
       <c r="P45">
         <v>-0.2</v>
       </c>
+      <c r="Q45">
+        <v>1.62</v>
+      </c>
+      <c r="R45">
+        <v>164.43</v>
+      </c>
+      <c r="S45">
+        <v>3.4</v>
+      </c>
       <c r="V45" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -3580,22 +4369,25 @@
       <c r="Z45">
         <v>3.364570379257202</v>
       </c>
-      <c r="AA45" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>301377</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>3.13</v>
@@ -3613,7 +4405,7 @@
         <v>27185.25</v>
       </c>
       <c r="J46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K46">
         <v>10</v>
@@ -3633,8 +4425,23 @@
       <c r="P46">
         <v>0.6899999999999999</v>
       </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>56.1</v>
+      </c>
+      <c r="S46">
+        <v>11.38</v>
+      </c>
       <c r="V46" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -3642,22 +4449,25 @@
       <c r="Z46">
         <v>2.12942099571228</v>
       </c>
-      <c r="AA46" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>301389</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>8.720000000000001</v>
@@ -3675,7 +4485,7 @@
         <v>55402.07</v>
       </c>
       <c r="J47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K47">
         <v>15</v>
@@ -3695,8 +4505,23 @@
       <c r="P47">
         <v>2.67</v>
       </c>
+      <c r="Q47">
+        <v>3.32</v>
+      </c>
+      <c r="R47">
+        <v>37.43</v>
+      </c>
+      <c r="S47">
+        <v>4.99</v>
+      </c>
       <c r="V47" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -3704,22 +4529,25 @@
       <c r="Z47">
         <v>4.423954486846924</v>
       </c>
-      <c r="AA47" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>301421</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>-1.4</v>
@@ -3737,7 +4565,7 @@
         <v>50785.2</v>
       </c>
       <c r="J48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K48">
         <v>26</v>
@@ -3757,8 +4585,23 @@
       <c r="P48">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q48">
+        <v>-2.22</v>
+      </c>
+      <c r="R48">
+        <v>83.3</v>
+      </c>
+      <c r="S48">
+        <v>2.61</v>
+      </c>
       <c r="V48" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -3766,22 +4609,25 @@
       <c r="Z48">
         <v>5.382933616638184</v>
       </c>
-      <c r="AA48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>301511</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>5.02</v>
@@ -3799,7 +4645,7 @@
         <v>108748.83</v>
       </c>
       <c r="J49" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K49">
         <v>25</v>
@@ -3819,8 +4665,23 @@
       <c r="P49">
         <v>-0.47</v>
       </c>
+      <c r="Q49">
+        <v>10.02</v>
+      </c>
+      <c r="R49">
+        <v>35.44</v>
+      </c>
+      <c r="S49">
+        <v>21.91</v>
+      </c>
       <c r="V49" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>1</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -3828,22 +4689,25 @@
       <c r="Z49">
         <v>0.6452405452728271</v>
       </c>
-      <c r="AA49" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>301526</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>0.83</v>
@@ -3861,7 +4725,7 @@
         <v>21290.79</v>
       </c>
       <c r="J50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K50">
         <v>15</v>
@@ -3881,8 +4745,23 @@
       <c r="P50">
         <v>0.15</v>
       </c>
+      <c r="Q50">
+        <v>1.21</v>
+      </c>
+      <c r="R50">
+        <v>5.19</v>
+      </c>
+      <c r="S50">
+        <v>7.01</v>
+      </c>
       <c r="V50" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>1</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -3890,22 +4769,25 @@
       <c r="Z50">
         <v>1.981442332267761</v>
       </c>
-      <c r="AA50" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>301529</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>0.64</v>
@@ -3923,7 +4805,7 @@
         <v>26095.16</v>
       </c>
       <c r="J51" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K51">
         <v>6</v>
@@ -3943,8 +4825,23 @@
       <c r="P51">
         <v>0.67</v>
       </c>
+      <c r="Q51">
+        <v>-4</v>
+      </c>
+      <c r="R51">
+        <v>62.36</v>
+      </c>
+      <c r="S51">
+        <v>2.38</v>
+      </c>
       <c r="V51" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -3952,22 +4849,25 @@
       <c r="Z51">
         <v>2.888806104660034</v>
       </c>
-      <c r="AA51" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>688202</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>-0.15</v>
@@ -3985,7 +4885,7 @@
         <v>51944.54</v>
       </c>
       <c r="J52" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K52">
         <v>15</v>
@@ -4005,8 +4905,23 @@
       <c r="P52">
         <v>-1.05</v>
       </c>
+      <c r="Q52">
+        <v>0.42</v>
+      </c>
+      <c r="R52">
+        <v>69.5</v>
+      </c>
+      <c r="S52">
+        <v>7.42</v>
+      </c>
       <c r="V52" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -4014,22 +4929,25 @@
       <c r="Z52">
         <v>7.223717212677002</v>
       </c>
-      <c r="AA52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>688210</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>-3.64</v>
@@ -4047,7 +4965,7 @@
         <v>31807.07</v>
       </c>
       <c r="J53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K53">
         <v>3</v>
@@ -4067,8 +4985,23 @@
       <c r="P53">
         <v>-0.33</v>
       </c>
+      <c r="Q53">
+        <v>8.08</v>
+      </c>
+      <c r="R53">
+        <v>36.88</v>
+      </c>
+      <c r="S53">
+        <v>9.73</v>
+      </c>
       <c r="V53" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -4076,22 +5009,25 @@
       <c r="Z53">
         <v>0.7443487644195557</v>
       </c>
-      <c r="AA53" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>688221</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>3.58</v>
@@ -4109,7 +5045,7 @@
         <v>38216.19</v>
       </c>
       <c r="J54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -4129,8 +5065,23 @@
       <c r="P54">
         <v>-0.36</v>
       </c>
+      <c r="Q54">
+        <v>9.74</v>
+      </c>
+      <c r="R54">
+        <v>23.2</v>
+      </c>
+      <c r="S54">
+        <v>14.68</v>
+      </c>
       <c r="V54" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>1</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -4138,22 +5089,25 @@
       <c r="Z54">
         <v>3.396449089050293</v>
       </c>
-      <c r="AA54" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>688222</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>0.09</v>
@@ -4171,7 +5125,7 @@
         <v>32821.72</v>
       </c>
       <c r="J55" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K55">
         <v>7</v>
@@ -4191,8 +5145,23 @@
       <c r="P55">
         <v>-0.1</v>
       </c>
+      <c r="Q55">
+        <v>4.13</v>
+      </c>
+      <c r="R55">
+        <v>24.32</v>
+      </c>
+      <c r="S55">
+        <v>6.34</v>
+      </c>
       <c r="V55" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
       </c>
       <c r="Y55">
         <v>1</v>
@@ -4200,22 +5169,25 @@
       <c r="Z55">
         <v>4.175276279449463</v>
       </c>
-      <c r="AA55" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>688313</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <v>1.53</v>
@@ -4233,7 +5205,7 @@
         <v>99239.94</v>
       </c>
       <c r="J56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K56">
         <v>29</v>
@@ -4253,8 +5225,23 @@
       <c r="P56">
         <v>0.16</v>
       </c>
+      <c r="Q56">
+        <v>10</v>
+      </c>
+      <c r="R56">
+        <v>66.95</v>
+      </c>
+      <c r="S56">
+        <v>18.52</v>
+      </c>
       <c r="V56" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -4262,22 +5249,25 @@
       <c r="Z56">
         <v>5.838919639587402</v>
       </c>
-      <c r="AA56" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>688499</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57">
         <v>2.09</v>
@@ -4295,7 +5285,7 @@
         <v>57099.6</v>
       </c>
       <c r="J57" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K57">
         <v>30</v>
@@ -4315,8 +5305,23 @@
       <c r="P57">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q57">
+        <v>3.4</v>
+      </c>
+      <c r="R57">
+        <v>60.29</v>
+      </c>
+      <c r="S57">
+        <v>12.38</v>
+      </c>
       <c r="V57" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -4324,22 +5329,25 @@
       <c r="Z57">
         <v>0.5211881399154663</v>
       </c>
-      <c r="AA57" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>688502</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58">
         <v>-0.12</v>
@@ -4357,7 +5365,7 @@
         <v>52594.77</v>
       </c>
       <c r="J58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -4377,8 +5385,23 @@
       <c r="P58">
         <v>0.61</v>
       </c>
+      <c r="Q58">
+        <v>-2</v>
+      </c>
+      <c r="R58">
+        <v>380</v>
+      </c>
+      <c r="S58">
+        <v>7.78</v>
+      </c>
       <c r="V58" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="X58">
+        <v>1</v>
       </c>
       <c r="Y58">
         <v>1</v>
@@ -4386,22 +5409,25 @@
       <c r="Z58">
         <v>7.259585380554199</v>
       </c>
-      <c r="AA58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AA58">
+        <v>1</v>
+      </c>
+      <c r="AB58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>688585</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59">
         <v>13.12</v>
@@ -4419,7 +5445,7 @@
         <v>112389.85</v>
       </c>
       <c r="J59" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K59">
         <v>4</v>
@@ -4439,8 +5465,23 @@
       <c r="P59">
         <v>-0.03</v>
       </c>
+      <c r="Q59">
+        <v>6.19</v>
+      </c>
+      <c r="R59">
+        <v>93.5</v>
+      </c>
+      <c r="S59">
+        <v>25.12</v>
+      </c>
       <c r="V59" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -4448,22 +5489,25 @@
       <c r="Z59">
         <v>6.294452667236328</v>
       </c>
-      <c r="AA59" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>688660</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <v>15.53</v>
@@ -4481,7 +5525,7 @@
         <v>99685.92999999999</v>
       </c>
       <c r="J60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K60">
         <v>4</v>
@@ -4501,8 +5545,23 @@
       <c r="P60">
         <v>0.1</v>
       </c>
+      <c r="Q60">
+        <v>10.05</v>
+      </c>
+      <c r="R60">
+        <v>17.19</v>
+      </c>
+      <c r="S60">
+        <v>15.52</v>
+      </c>
       <c r="V60" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>1</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -4510,8 +5569,11 @@
       <c r="Z60">
         <v>3.398159980773926</v>
       </c>
-      <c r="AA60" t="s">
-        <v>130</v>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
